--- a/mld_study_group_schedule.xlsx
+++ b/mld_study_group_schedule.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shoakamine/MPI/MLD_StudyGroup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shoakamine/MPI/MLD/MLD_StudyGroup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C025F10-7968-5D46-BDB4-F58F12277745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233D6FBE-FA12-C74B-BEA1-0FE3EB421DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="0qqygNfLdjmTIUou7iDMUlg3iXTebr+vYyID8krI4jzphRF+So8n021/Y8eHd1rtNDhIdPnyaGeAEveRl54DaA==" workbookSaltValue="cR9PlWsPvy3kYufWF+JJVQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{D2B68F78-5033-8042-90EF-63AAA5921D8D}"/>
+    <workbookView xWindow="2780" yWindow="1500" windowWidth="27680" windowHeight="18740" xr2:uid="{D2B68F78-5033-8042-90EF-63AAA5921D8D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="schedule" sheetId="1" r:id="rId1"/>
+    <sheet name="sign-up" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -132,6 +134,36 @@
   </si>
   <si>
     <t>[Bayesian] Statistical rethinking: Lecture 20</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Anita</t>
+  </si>
+  <si>
+    <t>Sharice</t>
+  </si>
+  <si>
+    <t>YaSuei</t>
+  </si>
+  <si>
+    <t>Sharice.Clough@mpi.nl</t>
+  </si>
+  <si>
+    <t>Anita.Slonimska@mpi.nl</t>
+  </si>
+  <si>
+    <t>Yasuei.Cheng@mpi.nl</t>
+  </si>
+  <si>
+    <t>Sevi</t>
+  </si>
+  <si>
+    <t>Sevilay.Sengul@mpi.nl</t>
   </si>
 </sst>
 </file>
@@ -139,7 +171,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-409]mmm\ d\,\ yyyy\ \(ddd\);@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -187,21 +219,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,185 +557,185 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="2"/>
-    <col min="4" max="4" width="60.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="60.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="7">
         <v>45209</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="7">
         <v>45215</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>364</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="7">
         <v>45230</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="4:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="4:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="4:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="4:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="4:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="4:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="4:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="4:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="4:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="4:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -755,4 +789,68 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E30DDE-E68B-2E40-87C3-046F0E324552}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{09328C52-252C-8342-B54E-00B7183F0945}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{9A3DB4CC-18C0-6640-8A8D-9907EF1CD4C8}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{B52A16C8-A0E0-3D4E-AA95-D52107C247CA}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{72002B43-E8F8-1444-9BF3-544D07A37211}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>